--- a/error.xlsx
+++ b/error.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Personal_Details_error" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="209">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -145,15 +145,6 @@
     <t>MOM05459</t>
   </si>
   <si>
-    <t>nannn</t>
-  </si>
-  <si>
-    <t>lkjlj</t>
-  </si>
-  <si>
-    <t>kjhojlkjl</t>
-  </si>
-  <si>
     <t>M11367A</t>
   </si>
   <si>
@@ -230,6 +221,9 @@
   </si>
   <si>
     <t>Chen Youyi</t>
+  </si>
+  <si>
+    <t>xvzcvxv</t>
   </si>
   <si>
     <t>Senior Resident</t>
@@ -1012,7 +1006,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AE15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1118,76 +1112,76 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
         <v>79</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>80</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>81</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>82</v>
       </c>
-      <c r="L2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M2" t="s">
-        <v>84</v>
-      </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" t="s">
         <v>101</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>103</v>
       </c>
-      <c r="R2" t="s">
-        <v>105</v>
-      </c>
       <c r="U2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="X2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Z2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AA2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AB2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC2" t="s">
         <v>189</v>
       </c>
-      <c r="AC2" t="s">
-        <v>191</v>
-      </c>
       <c r="AD2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -1198,73 +1192,73 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s">
         <v>79</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>80</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>81</v>
       </c>
-      <c r="K3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>83</v>
       </c>
-      <c r="M3" t="s">
-        <v>85</v>
-      </c>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="U3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="W3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="X3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Z3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AA3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AB3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AC3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AD3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -1275,76 +1269,76 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" t="s">
         <v>79</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>80</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>81</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>82</v>
       </c>
-      <c r="L4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M4" t="s">
-        <v>84</v>
-      </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="U4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="W4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="X4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Z4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AB4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AC4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AD4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -1355,79 +1349,79 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
         <v>77</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
         <v>79</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>80</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>81</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>82</v>
       </c>
-      <c r="L5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" t="s">
-        <v>84</v>
-      </c>
       <c r="N5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O5" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" t="s">
         <v>101</v>
       </c>
-      <c r="P5" t="s">
-        <v>103</v>
-      </c>
       <c r="R5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="V5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="X5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Z5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AA5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AB5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AC5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AD5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -1438,67 +1432,67 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
         <v>77</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
         <v>79</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>80</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>81</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>82</v>
       </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="s">
-        <v>84</v>
-      </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" t="s">
         <v>101</v>
       </c>
-      <c r="P6" t="s">
-        <v>103</v>
-      </c>
       <c r="R6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="W6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="X6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AB6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AC6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AD6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1509,76 +1503,76 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
         <v>72</v>
       </c>
-      <c r="F7" t="s">
-        <v>74</v>
-      </c>
       <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
         <v>77</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
         <v>79</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>80</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>81</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>82</v>
       </c>
-      <c r="L7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" t="s">
-        <v>84</v>
-      </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="U7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="X7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AA7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AB7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AC7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AD7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1589,70 +1583,70 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
         <v>72</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>74</v>
       </c>
-      <c r="G8" t="s">
-        <v>76</v>
-      </c>
       <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" t="s">
         <v>79</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>80</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>81</v>
       </c>
-      <c r="K8" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" t="s">
-        <v>83</v>
-      </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" t="s">
         <v>102</v>
       </c>
-      <c r="P8" t="s">
-        <v>104</v>
-      </c>
       <c r="R8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="W8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="X8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AB8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AC8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1663,73 +1657,73 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
         <v>72</v>
       </c>
-      <c r="F9" t="s">
-        <v>74</v>
-      </c>
       <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
         <v>77</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
         <v>79</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>80</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>81</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>82</v>
       </c>
-      <c r="L9" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" t="s">
-        <v>84</v>
-      </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="s">
         <v>101</v>
       </c>
-      <c r="P9" t="s">
-        <v>103</v>
-      </c>
       <c r="R9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="W9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="X9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AA9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AB9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AC9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AD9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1740,73 +1734,73 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
         <v>72</v>
       </c>
-      <c r="F10" t="s">
-        <v>74</v>
-      </c>
       <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
         <v>77</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" t="s">
         <v>79</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>80</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>81</v>
       </c>
-      <c r="K10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" t="s">
-        <v>83</v>
-      </c>
       <c r="M10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="U10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="X10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AA10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AC10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AD10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1817,76 +1811,76 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" t="s">
         <v>75</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>77</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" t="s">
         <v>79</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>80</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>81</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>82</v>
       </c>
-      <c r="L11" t="s">
-        <v>83</v>
-      </c>
-      <c r="M11" t="s">
-        <v>84</v>
-      </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="U11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="V11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Z11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AA11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AB11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AC11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AD11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1897,76 +1891,76 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s">
         <v>78</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>79</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>80</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>81</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>82</v>
       </c>
-      <c r="L12" t="s">
-        <v>83</v>
-      </c>
-      <c r="M12" t="s">
-        <v>84</v>
-      </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P12" t="s">
         <v>101</v>
       </c>
-      <c r="P12" t="s">
-        <v>103</v>
-      </c>
       <c r="R12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="W12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="X12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Z12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AA12" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB12" t="s">
         <v>187</v>
       </c>
-      <c r="AB12" t="s">
-        <v>189</v>
-      </c>
       <c r="AD12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1977,73 +1971,73 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
         <v>70</v>
       </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" t="s">
         <v>79</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>80</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>81</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>82</v>
       </c>
-      <c r="L13" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" t="s">
-        <v>84</v>
-      </c>
       <c r="N13" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" t="s">
         <v>99</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>101</v>
       </c>
-      <c r="P13" t="s">
-        <v>103</v>
-      </c>
       <c r="R13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="U13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="X13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Z13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AA13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AB13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AC13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AD13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -2054,110 +2048,84 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" t="s">
         <v>78</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>79</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>80</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>81</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>82</v>
       </c>
-      <c r="L14" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" t="s">
-        <v>84</v>
-      </c>
       <c r="N14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" t="s">
         <v>100</v>
       </c>
-      <c r="O14" t="s">
-        <v>102</v>
-      </c>
       <c r="P14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="U14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="V14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="X14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Z14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB14" t="s">
         <v>188</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
+      <c r="D15" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:BA15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
-      <formula>"mnmo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:BA16">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
-      <formula>"mnmo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:BA17">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="notEqual">
-      <formula>"mnmo"</formula>
+      <formula>"o1"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
